--- a/PBX/PBX.xlsx
+++ b/PBX/PBX.xlsx
@@ -13,11 +13,162 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="N11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+call sent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Connection established between initiator and acceptor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+call received</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+user terminal is subscribed at certain tariff plan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+tarification is ON till connection is ON</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+session data sent to UTR if connection is OFF after being ON</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
-  <si>
-    <t>PBX (private branch exchange)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>inner definition</t>
   </si>
@@ -118,9 +269,6 @@
     <t>UT_AW</t>
   </si>
   <si>
-    <t>UT_SB</t>
-  </si>
-  <si>
     <t>PBX_PST.online</t>
   </si>
   <si>
@@ -133,29 +281,96 @@
     <t>PBX_PST.busy + PBX_PSS.acceptor</t>
   </si>
   <si>
-    <t>UT (UserTerminal)</t>
-  </si>
-  <si>
     <t>T (Tarifficator)</t>
   </si>
   <si>
-    <t>UTR (UserTerminalRecorder)</t>
-  </si>
-  <si>
-    <t>on.(PBX.initiator+PBX.acceptor)</t>
+    <t>UT (User Terminal)</t>
+  </si>
+  <si>
+    <t>UTR (User Terminal Recorder)</t>
+  </si>
+  <si>
+    <t>PBX (Private Branch Exchange)</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>T_SB</t>
+  </si>
+  <si>
+    <t>on.(PBX.initiator.UT_DL+PBX.acceptor.UT_AW)</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>UT_CL</t>
+  </si>
+  <si>
+    <t>PBX_PST.offline</t>
+  </si>
+  <si>
+    <t>Tarification</t>
+  </si>
+  <si>
+    <t>T_T</t>
+  </si>
+  <si>
+    <t>on.(till PBX_CON)</t>
+  </si>
+  <si>
+    <t>TariffPlan</t>
+  </si>
+  <si>
+    <t>T_TP</t>
+  </si>
+  <si>
+    <t>T_SB.T_TP.UT_NR.UT_NM</t>
+  </si>
+  <si>
+    <t>SendData</t>
+  </si>
+  <si>
+    <t>T_SDT</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>T_SDT.send</t>
+  </si>
+  <si>
+    <t>T_TPF</t>
+  </si>
+  <si>
+    <t>TariffPlanFare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -174,139 +389,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -610,324 +702,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="43.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9999</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="J4" s="4" t="s">
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="N19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <v>9999</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="12" t="s">
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L32" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="J11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="J12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" t="s">
-        <v>41</v>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PBX/PBX.xlsx
+++ b/PBX/PBX.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="umanets"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umanets\Dropbox\личное\C#\EPAM\Задания\EpamIntro\PBX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="pm" day="1433429178" val="675"/>
@@ -21,150 +27,450 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>service04</author>
     <author>Unknown</author>
   </authors>
   <commentList>
-    <comment ref="F12" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <rFont val="Tahoma"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>service04:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+neet to add this into report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>service04:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+period after which drop dial of initiator happens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <sz val="9"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+call sent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Автор:</t>
         </r>
         <r>
           <rPr>
-            <rFont val="Tahoma"/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+call received</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <sz val="9"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Connection established between initiator and acceptor.</t>
         </r>
       </text>
     </comment>
-    <comment ref="N13" authorId="0">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <rFont val="Tahoma"/>
-            <charset val="204"/>
-            <family val="2"/>
-            <sz val="9"/>
             <b/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Tahoma"/>
-            <charset val="204"/>
-            <family val="2"/>
-            <sz val="9"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>service04:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-call received</t>
+connection terminated if UT_CL happens</t>
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="0">
+    <comment ref="N14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <rFont val="Tahoma"/>
-            <charset val="204"/>
-            <family val="2"/>
-            <sz val="9"/>
             <b/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Tahoma"/>
-            <charset val="204"/>
-            <family val="2"/>
-            <sz val="9"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>service04:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-call sent</t>
+initiator hang the terminal:  if done by user</t>
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0">
+    <comment ref="O14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <rFont val="Tahoma"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>service04:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+initiator or acceptor is became not available during session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>service04:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+initiator or acceptor hang the terminal: if done not by user</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>service04:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+initiator dial is dropped if dial duration cout reaches dial duration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <sz val="9"/>
-            <b/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Tahoma"/>
             <charset val="204"/>
-            <family val="2"/>
-            <sz val="9"/>
           </rPr>
           <t xml:space="preserve">
 user terminal is subscribed at certain tariff plan</t>
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0">
+    <comment ref="F28" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
-            <rFont val="Tahoma"/>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <sz val="9"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+tarification count session fare for T_SDT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F29" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Автор:</t>
         </r>
         <r>
           <rPr>
-            <rFont val="Tahoma"/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
-            <family val="2"/>
-            <sz val="9"/>
           </rPr>
           <t xml:space="preserve">
 session data sent to UTR if connection is OFF after being ON</t>
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>service04</author>
+    <author>Unknown</author>
+  </authors>
+  <commentList>
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <rFont val="Tahoma"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>service04:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+period after which drop dial of initiator happens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>service04:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+period after which drop dial of initiator happens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <sz val="9"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Connection established between initiator and acceptor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Tahoma"/>
-            <charset val="204"/>
-            <family val="2"/>
-            <sz val="9"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>service04:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-tarification count session fare for T_SDT</t>
+connection terminated if UT_CL happens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>service04:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+initiator dial is dropped if dial duration cout reaches dial duration</t>
         </r>
       </text>
     </comment>
@@ -173,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
   <si>
     <t>PBX (Private Branch Exchange)</t>
   </si>
@@ -235,12 +541,6 @@
     <t>PBX_PSS</t>
   </si>
   <si>
-    <t>initiator</t>
-  </si>
-  <si>
-    <t>acceptor</t>
-  </si>
-  <si>
     <t>ConnectionDuration</t>
   </si>
   <si>
@@ -359,101 +659,134 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>off.UT_CL</t>
+  </si>
+  <si>
+    <t>initiator.UT_DL</t>
+  </si>
+  <si>
+    <t>acceptor.UT_AW</t>
+  </si>
+  <si>
+    <t>DialDuration</t>
+  </si>
+  <si>
+    <t>PBX_DDR</t>
+  </si>
+  <si>
+    <t>5000 ms</t>
+  </si>
+  <si>
+    <t>DropDial</t>
+  </si>
+  <si>
+    <t>PBX_DDL</t>
+  </si>
+  <si>
+    <t>DialDurationCount</t>
+  </si>
+  <si>
+    <t>PBX_DRC</t>
+  </si>
+  <si>
+    <t>PBX_DDL.(PBX_DRC==PBX_DDR)</t>
+  </si>
+  <si>
+    <t>vaiables</t>
+  </si>
+  <si>
+    <t>9999, 0001, 0002, 0003, etc.</t>
+  </si>
+  <si>
+    <t>online, offline, busy, hold</t>
+  </si>
+  <si>
+    <t>initiator.UT_DL, acceptor.UT_AW</t>
+  </si>
+  <si>
+    <t>in milleseconds: 10000, 5000, 1000, etc.</t>
+  </si>
+  <si>
+    <t>DropDialDuration</t>
+  </si>
+  <si>
+    <t>methods</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;р&quot;;\-#,##0\ &quot;р&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;р&quot;;[Red]\-#,##0\ &quot;р&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;р&quot;;\-#,##0.00\ &quot;р&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;р&quot;;[Red]\-#,##0.00\ &quot;р&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;р&quot;_-;\-* #,##0\ &quot;р&quot;_-;_-* &quot;-&quot;\ &quot;р&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _р_-;\-* #,##0\ _р_-;_-* &quot;-&quot;\ _р_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;р&quot;_-;\-* #,##0.00\ &quot;р&quot;_-;_-* &quot;-&quot;??\ &quot;р&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _р_-;\-* #,##0.00\ _р_-;_-* &quot;-&quot;??\ _р_-;_-@_-"/>
-    <numFmt numFmtId="49" formatCode="@"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <sz val="9"/>
     </font>
     <font>
-      <name val="Tahoma"/>
-      <charset val="204"/>
-      <family val="2"/>
       <b/>
       <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="1"/>
-        <bgColor indexed="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="1" hidden="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="1" hidden="0"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,13 +794,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -475,10 +816,10 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -505,19 +846,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -690,379 +1091,680 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:O42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:IV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.142857" customWidth="1" style="2"/>
-    <col min="6" max="6" width="43.142857" customWidth="1" style="2"/>
-    <col min="7" max="13" width="9.142857" customWidth="1" style="2"/>
-    <col min="14" max="14" width="31.142857" customWidth="1" style="2"/>
-    <col min="15" max="256" width="9.142857" customWidth="1" style="2"/>
+    <col min="1" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="17" max="256" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="1">
         <v>9999</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="3" t="s">
+      <c r="K9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="3:14">
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="2" t="s">
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="10:14">
-      <c r="J11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="2" t="s">
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="G14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="L23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="10:14">
-      <c r="J13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="10:15">
-      <c r="J14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="10:12">
-      <c r="J15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11">
-      <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="L28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L32" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="2" t="s">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="3"/>
-      <c r="L23" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12">
-      <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="12:12">
-      <c r="L26" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="12:12">
-      <c r="L30" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="12:12">
-      <c r="L31" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="12:12">
-      <c r="L32" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="12:12">
-      <c r="L34" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="12:12">
-      <c r="L35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="12:12">
-      <c r="L36" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="12:12">
-      <c r="L38" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="12:12">
-      <c r="L39" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="12:12">
-      <c r="L40" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="12:12">
-      <c r="L41" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="12:12">
-      <c r="L42" s="3" t="s">
-        <v>61</v>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:I26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="3:9" ht="15" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>